--- a/M26 Player Ratings Spreadsheet.xlsx
+++ b/M26 Player Ratings Spreadsheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darrenthomas/classes/side_projects/fantasy-football_zoo/madden_data_archives/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darrenthomas/classes/side_projects/fantasy-football_zoo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C46CC6-4B64-714D-B167-0FEBA51186FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE0F490-B5EC-704D-AEDD-19BDE8FB6901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
